--- a/storage/import_templates/4.xlsx
+++ b/storage/import_templates/4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F316DB29-1E85-4D91-8069-37BC6B9F581D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC0520-E23C-4618-9F7C-FC059A1FD2C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>mahb</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Học kỳ 1 - Năm học 2019 - 2020</t>
+  </si>
+  <si>
+    <t>gtmoihocbong</t>
+  </si>
+  <si>
+    <t>TEST IMPORT HỌC BỔNG 1</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,12 +161,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -170,6 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,11 +469,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -473,7 +491,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,25 +504,28 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -512,23 +533,26 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>4500000</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>5000000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>20</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -536,13 +560,16 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>300000000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>30</v>
       </c>
     </row>
